--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08839285-6797-4D3E-95B3-9214EFD73907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C260BADA-F2F7-4184-9969-EC52DB1C9B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1005,8 +1005,10 @@
         <v>45933</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="39"/>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1028,8 +1030,10 @@
         <v>45934</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="39"/>
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1077,7 +1081,9 @@
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12">
+        <v>27795.5</v>
+      </c>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1727,7 +1733,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>27795.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4886,12 +4892,14 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4903,7 +4911,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C14" sqref="C14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5154,7 +5162,9 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12">
+        <v>248</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -5176,7 +5186,9 @@
         <v>45934</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>123.25</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
@@ -5225,7 +5237,9 @@
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12">
+        <v>5</v>
+      </c>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -5871,11 +5885,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>73</v>
+        <v>196.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9051,7 +9065,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9301,7 +9315,9 @@
         <v>45933</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>170</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
@@ -9324,7 +9340,9 @@
         <v>45934</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>7812.5</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
@@ -9372,7 +9390,9 @@
         <v>45936</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15">
+        <v>345.75</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
@@ -10019,7 +10039,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>0</v>
+        <v>8328.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C260BADA-F2F7-4184-9969-EC52DB1C9B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8ED8F0-36F3-4582-9E11-6C8040DB97B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1105,7 +1105,9 @@
         <v>45937</v>
       </c>
       <c r="C16" s="27"/>
-      <c r="D16" s="15"/>
+      <c r="D16" s="15">
+        <v>926.25</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="34"/>
       <c r="G16" s="1"/>
@@ -1729,7 +1731,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>3663.5</v>
+        <v>4589.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4911,7 +4913,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F14"/>
+      <selection activeCell="D16" sqref="D16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5261,8 +5263,10 @@
         <v>45937</v>
       </c>
       <c r="C16" s="27"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="39"/>
       <c r="F16" s="34"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -9048,12 +9052,13 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9065,7 +9070,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9415,7 +9420,9 @@
         <v>45937</v>
       </c>
       <c r="C16" s="27"/>
-      <c r="D16" s="15"/>
+      <c r="D16" s="15">
+        <v>1223</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="34"/>
       <c r="G16" s="1"/>
@@ -10039,7 +10046,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>8328.25</v>
+        <v>9551.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8ED8F0-36F3-4582-9E11-6C8040DB97B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E4F432-FB47-4F47-A262-002B6B8E4C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1130,8 +1130,10 @@
         <v>45938</v>
       </c>
       <c r="C17" s="27"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="39"/>
       <c r="F17" s="34"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1154,7 +1156,9 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>79</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1735,7 +1739,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>27795.5</v>
+        <v>27874.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4894,7 +4898,7 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C21:F21"/>
@@ -4902,6 +4906,7 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4913,7 +4918,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5288,8 +5293,10 @@
         <v>45938</v>
       </c>
       <c r="C17" s="27"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="39"/>
       <c r="F17" s="34"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5311,7 +5318,9 @@
         <v>45939</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1370.5</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
@@ -5889,7 +5898,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>196.25</v>
+        <v>1566.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9052,13 +9061,14 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9070,7 +9080,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9446,7 +9456,9 @@
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12">
+        <v>84.5</v>
+      </c>
       <c r="F17" s="34"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -9468,7 +9480,9 @@
         <v>45939</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>255.25</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
@@ -10046,11 +10060,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>9551.25</v>
+        <v>9806.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5085</v>
+        <v>5169.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E4F432-FB47-4F47-A262-002B6B8E4C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614FC540-C646-4F4C-A704-ACEAC3EC7B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1180,8 +1180,10 @@
         <v>45940</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="39"/>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4898,7 +4900,7 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C21:F21"/>
@@ -4907,6 +4909,7 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4918,7 +4921,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5344,7 +5347,9 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12">
+        <v>387.63</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -5902,7 +5907,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>253</v>
+        <v>640.63</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9080,7 +9085,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9506,7 +9511,9 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12">
+        <v>645.25</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -10064,7 +10071,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5169.5</v>
+        <v>5814.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614FC540-C646-4F4C-A704-ACEAC3EC7B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E35F1-6945-4BC5-8AE3-5E67A626EE1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1205,7 +1205,9 @@
         <v>45941</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="15">
+        <v>687.75</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
@@ -1737,7 +1739,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>4589.75</v>
+        <v>5277.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4921,7 +4923,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C21" sqref="C21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5372,7 +5374,9 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12">
+        <v>7.75</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5907,7 +5911,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>640.63</v>
+        <v>648.38</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9085,7 +9089,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9535,7 +9539,9 @@
         <v>45941</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="15">
+        <v>128</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
@@ -10067,7 +10073,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>9806.5</v>
+        <v>9934.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E35F1-6945-4BC5-8AE3-5E67A626EE1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578F0479-7B32-4EF4-A2FD-BF7B4E0ED847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1256,7 +1256,9 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12">
+        <v>85</v>
+      </c>
       <c r="F22" s="11"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1743,7 +1745,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>27874.5</v>
+        <v>27959.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4923,7 +4925,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:F21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5424,7 +5426,9 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12">
+        <v>4047.5</v>
+      </c>
       <c r="F22" s="11"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5911,7 +5915,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>648.38</v>
+        <v>4695.88</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9089,7 +9093,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9590,7 +9594,9 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12">
+        <v>455.25</v>
+      </c>
       <c r="F22" s="11"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -10077,7 +10083,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5814.75</v>
+        <v>6270</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578F0479-7B32-4EF4-A2FD-BF7B4E0ED847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC0FD69-3232-4592-A6A8-78759535C135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1281,7 +1281,9 @@
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="12">
+        <v>785.13</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1745,7 +1747,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>27959.5</v>
+        <v>28744.63</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4925,7 +4927,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5450,7 +5452,9 @@
         <v>45944</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="15"/>
+      <c r="D23" s="15">
+        <v>3936</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="11"/>
       <c r="G23" s="1"/>
@@ -5911,7 +5915,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1566.75</v>
+        <v>5502.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9092,8 +9096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9619,7 +9623,9 @@
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="12">
+        <v>799.5</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -10083,7 +10089,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>6270</v>
+        <v>7069.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC0FD69-3232-4592-A6A8-78759535C135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88836C8-A6F2-4BEC-8E0D-B0233A4BBFAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1305,7 +1305,9 @@
         <v>45945</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
+      <c r="D24" s="15">
+        <v>198.5</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="11"/>
       <c r="G24" s="1"/>
@@ -1743,7 +1745,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>5277.5</v>
+        <v>5476</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4927,7 +4929,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5477,8 +5479,10 @@
         <v>45945</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="39"/>
       <c r="F24" s="11"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -9078,7 +9082,7 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C28:F28"/>
@@ -9086,6 +9090,7 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9096,8 +9101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9647,8 +9652,10 @@
         <v>45945</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="39"/>
       <c r="F24" s="11"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -13248,12 +13255,13 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88836C8-A6F2-4BEC-8E0D-B0233A4BBFAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37915A06-562E-4981-9691-3E4308928EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1330,8 +1330,10 @@
         <v>45946</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="39"/>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4908,7 +4910,7 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C21:F21"/>
@@ -4918,6 +4920,7 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4929,7 +4932,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5505,7 +5508,9 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="12">
+        <v>4.5</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5528,7 +5533,7 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -5923,7 +5928,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4695.88</v>
+        <v>4700.38</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9102,7 +9107,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9678,7 +9683,9 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="12">
+        <v>300.5</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -10096,7 +10103,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>7069.5</v>
+        <v>7370</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37915A06-562E-4981-9691-3E4308928EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F9FA37-56E6-4A83-A969-BC2CCBB9F7E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -754,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -4932,7 +4932,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5532,7 +5532,9 @@
         <v>45947</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="35"/>
+      <c r="D26" s="35">
+        <v>9134.5</v>
+      </c>
       <c r="E26" s="12"/>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
@@ -5924,7 +5926,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>5502.75</v>
+        <v>14637.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9106,8 +9108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9707,7 +9709,9 @@
         <v>45947</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="35"/>
+      <c r="D26" s="35">
+        <v>85.58</v>
+      </c>
       <c r="E26" s="36"/>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
@@ -10099,7 +10103,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>9934.5</v>
+        <v>10020.08</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F9FA37-56E6-4A83-A969-BC2CCBB9F7E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00B74FE-9D67-4ABD-9EE8-617C41B11B12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C28" sqref="C28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1355,7 +1355,9 @@
         <v>45947</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="35"/>
+      <c r="D26" s="35">
+        <v>1.75</v>
+      </c>
       <c r="E26" s="36"/>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
@@ -1379,7 +1381,9 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12">
+        <v>8</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1747,11 +1751,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>5476</v>
+        <v>5477.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>28744.63</v>
+        <v>28752.63</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4932,7 +4936,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C28" sqref="C28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5558,7 +5562,9 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12">
+        <v>3</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -5930,7 +5936,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4700.38</v>
+        <v>4703.38</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9109,7 +9115,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C28" sqref="C28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9734,7 +9740,9 @@
         <v>45948</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="15"/>
+      <c r="D27" s="15">
+        <v>41.25</v>
+      </c>
       <c r="E27" s="12"/>
       <c r="F27" s="11"/>
       <c r="G27" s="1"/>
@@ -10103,7 +10111,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>10020.08</v>
+        <v>10061.33</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00B74FE-9D67-4ABD-9EE8-617C41B11B12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F8B46-2412-487F-958E-C30401DEB7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:F28"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1430,7 +1430,9 @@
         <v>45950</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="15">
+        <v>1401.5</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="34"/>
       <c r="G29" s="1"/>
@@ -1751,7 +1753,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>5477.75</v>
+        <v>6879.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4936,7 +4938,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:F28"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5612,7 +5614,9 @@
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12">
+        <v>727.5</v>
+      </c>
       <c r="F29" s="34"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -5936,7 +5940,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4703.38</v>
+        <v>5430.88</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9114,8 +9118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:F28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9791,7 +9795,9 @@
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12">
+        <v>251.5</v>
+      </c>
       <c r="F29" s="34"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -10115,7 +10121,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>7370</v>
+        <v>7621.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F8B46-2412-487F-958E-C30401DEB7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77B6EB5-A060-48D3-B6B5-D3020AD35C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9118,7 +9118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77B6EB5-A060-48D3-B6B5-D3020AD35C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7BC419-F60A-4424-970A-EA1BE95375EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1455,7 +1455,9 @@
         <v>45951</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="15">
+        <v>84</v>
+      </c>
       <c r="E30" s="12"/>
       <c r="F30" s="34"/>
       <c r="G30" s="1"/>
@@ -1753,7 +1755,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>6879.25</v>
+        <v>6963.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4938,7 +4940,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5639,7 +5641,9 @@
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="12">
+        <v>0.75</v>
+      </c>
       <c r="F30" s="34"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -5940,7 +5944,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5430.88</v>
+        <v>5431.63</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9118,8 +9122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9819,7 +9823,9 @@
         <v>45951</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="15">
+        <v>445.5</v>
+      </c>
       <c r="E30" s="12"/>
       <c r="F30" s="34"/>
       <c r="G30" s="1"/>
@@ -10117,7 +10123,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>10061.33</v>
+        <v>10506.83</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7BC419-F60A-4424-970A-EA1BE95375EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1663E8F-BB3D-4E0A-8EBB-087AA30993BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1480,8 +1480,10 @@
         <v>45952</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="F31" s="34"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -4918,7 +4920,7 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C21:F21"/>
@@ -4929,6 +4931,7 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4940,7 +4943,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D31" sqref="D31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5665,8 +5668,10 @@
         <v>45952</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="F31" s="34"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -9103,7 +9108,7 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C28:F28"/>
@@ -9112,6 +9117,7 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9122,8 +9128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9848,7 +9854,9 @@
         <v>45952</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="15"/>
+      <c r="D31" s="15">
+        <v>1791.25</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="34"/>
       <c r="G31" s="1"/>
@@ -10123,7 +10131,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>10506.83</v>
+        <v>12298.08</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1663E8F-BB3D-4E0A-8EBB-087AA30993BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3BCD55-85EE-4798-8CE1-0EC8B47BC3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:E31"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1506,7 +1506,9 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="12">
+        <v>182.5</v>
+      </c>
       <c r="F32" s="34"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1529,7 +1531,9 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="12">
+        <v>507.5</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1761,7 +1765,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>28752.63</v>
+        <v>29442.63</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4943,7 +4947,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:E31"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5693,7 +5697,9 @@
         <v>45953</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="15"/>
+      <c r="D32" s="15">
+        <v>675</v>
+      </c>
       <c r="E32" s="12"/>
       <c r="F32" s="34"/>
       <c r="G32" s="1"/>
@@ -5717,7 +5723,9 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="12">
+        <v>42</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -5945,11 +5953,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>14637.25</v>
+        <v>15312.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5431.63</v>
+        <v>5473.63</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9129,7 +9137,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9879,7 +9887,9 @@
         <v>45953</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="15"/>
+      <c r="D32" s="15">
+        <v>84.75</v>
+      </c>
       <c r="E32" s="12"/>
       <c r="F32" s="34"/>
       <c r="G32" s="1"/>
@@ -9903,7 +9913,9 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="12">
+        <v>183</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -10131,11 +10143,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>12298.08</v>
+        <v>12382.83</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>7621.5</v>
+        <v>7804.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3BCD55-85EE-4798-8CE1-0EC8B47BC3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F47669-18E0-47F0-BAA5-977B7F7AE72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C35" sqref="C35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1555,7 +1555,9 @@
         <v>45955</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="15"/>
+      <c r="D34" s="15">
+        <v>122</v>
+      </c>
       <c r="E34" s="12"/>
       <c r="F34" s="11"/>
       <c r="G34" s="1"/>
@@ -1761,7 +1763,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>6963.25</v>
+        <v>7085.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4947,7 +4949,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C35" sqref="C35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5747,7 +5749,9 @@
         <v>45955</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="15"/>
+      <c r="D34" s="15">
+        <v>49</v>
+      </c>
       <c r="E34" s="12"/>
       <c r="F34" s="11"/>
       <c r="G34" s="1"/>
@@ -5953,7 +5957,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>15312.25</v>
+        <v>15361.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9137,7 +9141,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C35" sqref="C35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9937,7 +9941,9 @@
         <v>45955</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="15"/>
+      <c r="D34" s="15">
+        <v>3947.25</v>
+      </c>
       <c r="E34" s="12"/>
       <c r="F34" s="11"/>
       <c r="G34" s="1"/>
@@ -10143,7 +10149,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>12382.83</v>
+        <v>16330.08</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F47669-18E0-47F0-BAA5-977B7F7AE72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8155EC74-427B-4057-AFB8-C1F275E63FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:F35"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1605,7 +1605,9 @@
         <v>45957</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="15">
+        <v>5817.75</v>
+      </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11"/>
       <c r="G36" s="1"/>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>7085.25</v>
+        <v>12903</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4948,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:F35"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5799,7 +5801,9 @@
         <v>45957</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="15">
+        <v>478</v>
+      </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11"/>
       <c r="G36" s="1"/>
@@ -5957,7 +5961,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>15361.25</v>
+        <v>15839.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9140,8 +9144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:F35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9991,7 +9995,9 @@
         <v>45957</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="15">
+        <v>23259.5</v>
+      </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11"/>
       <c r="G36" s="1"/>
@@ -10149,7 +10155,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>16330.08</v>
+        <v>39589.58</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8155EC74-427B-4057-AFB8-C1F275E63FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CFD8E5-EDD7-42A2-8C10-D5BE0FDFF85C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1631,7 +1631,9 @@
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="12">
+        <v>857.75</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1769,7 +1771,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>29442.63</v>
+        <v>30300.38</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4951,7 +4953,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5826,7 +5828,9 @@
         <v>45958</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="15"/>
+      <c r="D37" s="15">
+        <v>50</v>
+      </c>
       <c r="E37" s="12"/>
       <c r="F37" s="11"/>
       <c r="G37" s="1"/>
@@ -5961,7 +5965,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>15839.25</v>
+        <v>15889.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9145,7 +9149,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10020,7 +10024,9 @@
         <v>45958</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="15"/>
+      <c r="D37" s="15">
+        <v>297.5</v>
+      </c>
       <c r="E37" s="12"/>
       <c r="F37" s="11"/>
       <c r="G37" s="1"/>
@@ -10155,7 +10161,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>39589.58</v>
+        <v>39887.08</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CFD8E5-EDD7-42A2-8C10-D5BE0FDFF85C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700A873B-C517-4617-87D4-9AC4210AF3F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1656,7 +1656,9 @@
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="12">
+        <v>80.77</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1771,7 +1773,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>30300.38</v>
+        <v>30381.15</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4953,7 +4955,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5853,7 +5855,9 @@
         <v>45959</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="15"/>
+      <c r="D38" s="15">
+        <v>80.77</v>
+      </c>
       <c r="E38" s="12"/>
       <c r="F38" s="11"/>
       <c r="G38" s="1"/>
@@ -5965,7 +5969,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>15889.25</v>
+        <v>15970.02</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9149,7 +9153,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10049,8 +10053,10 @@
         <v>45959</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="12"/>
+      <c r="D38" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="39"/>
       <c r="F38" s="11"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -13324,7 +13330,8 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C28:F28"/>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700A873B-C517-4617-87D4-9AC4210AF3F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2368D061-5073-4CCD-81B5-0B2EDDC3F885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1680,7 +1680,9 @@
         <v>45960</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="15">
+        <v>111</v>
+      </c>
       <c r="E39" s="12"/>
       <c r="F39" s="11"/>
       <c r="G39" s="1"/>
@@ -1699,7 +1701,9 @@
       <c r="A40" s="11">
         <v>29</v>
       </c>
-      <c r="B40" s="31"/>
+      <c r="B40" s="31">
+        <v>45961</v>
+      </c>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
       <c r="E40" s="12"/>
@@ -1769,7 +1773,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>12903</v>
+        <v>13014</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4954,8 +4958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5881,7 +5885,9 @@
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="12">
+        <v>23</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -5899,7 +5905,9 @@
       <c r="A40" s="11">
         <v>29</v>
       </c>
-      <c r="B40" s="31"/>
+      <c r="B40" s="31">
+        <v>45961</v>
+      </c>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
       <c r="E40" s="12"/>
@@ -5973,7 +5981,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5473.63</v>
+        <v>5496.63</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9152,8 +9160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10078,7 +10086,9 @@
         <v>45960</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="15">
+        <v>2271</v>
+      </c>
       <c r="E39" s="12"/>
       <c r="F39" s="11"/>
       <c r="G39" s="1"/>
@@ -10097,7 +10107,9 @@
       <c r="A40" s="11">
         <v>29</v>
       </c>
-      <c r="B40" s="31"/>
+      <c r="B40" s="31">
+        <v>45961</v>
+      </c>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
       <c r="E40" s="12"/>
@@ -10167,7 +10179,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>39887.08</v>
+        <v>42158.080000000002</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -13331,13 +13343,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="C35:F35"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SHORT OVER ALL ROUTES - OCTOBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2368D061-5073-4CCD-81B5-0B2EDDC3F885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F72DE63-F689-44EA-92C3-3B034C6F2289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -754,18 +754,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="14.875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="15" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.75" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1706,7 +1706,9 @@
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="12">
+        <v>67.75</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1777,7 +1779,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>30381.15</v>
+        <v>30448.9</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4958,18 +4960,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="14.875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="15" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.75" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -5910,7 +5912,9 @@
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="12">
+        <v>370</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -5981,7 +5985,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5496.63</v>
+        <v>5866.63</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9160,18 +9164,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="14.875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="15" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.75" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -10112,7 +10116,9 @@
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="12">
+        <v>159.5</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -10183,7 +10189,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>7804.5</v>
+        <v>7964</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
